--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>1</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>1</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,63 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1268.900024414062</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1188.650024414062</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1221.550048828125</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1221.550048828125</v>
+      </c>
+      <c r="G146" t="n">
+        <v>3431951</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5</v>
+      </c>
+      <c r="J146" t="n">
+        <v>27</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>22</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R146"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8133,7 +8133,7 @@
         <v>20</v>
       </c>
       <c r="O137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P137" t="n">
         <v>0</v>
@@ -8645,7 +8645,117 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1277.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1218</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1247.650024414062</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1247.650024414062</v>
+      </c>
+      <c r="G147" t="n">
+        <v>3497245</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I147" t="n">
+        <v>5</v>
+      </c>
+      <c r="J147" t="n">
+        <v>28</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>22</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1247.650024414062</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1278</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1192.599975585938</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1213.150024414062</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1213.150024414062</v>
+      </c>
+      <c r="G148" t="n">
+        <v>3772421</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I148" t="n">
+        <v>5</v>
+      </c>
+      <c r="J148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>22</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>1</v>
+      </c>
+      <c r="R148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q148"/>
+  <dimension ref="A1:R149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>1</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>1</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,63 @@
       <c r="Q148" t="n">
         <v>1</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1218.800048828125</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1242</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1211.550048828125</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1212.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1212.5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>578600</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I149" t="n">
+        <v>5</v>
+      </c>
+      <c r="J149" t="n">
+        <v>30</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>22</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R149"/>
+  <dimension ref="A1:R150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8813,7 +8813,63 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1225</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1172</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1181.349975585938</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1181.349975585938</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1910005</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I150" t="n">
+        <v>5</v>
+      </c>
+      <c r="J150" t="n">
+        <v>31</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>22</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -8869,7 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
-      <c r="R150" t="inlineStr"/>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>1</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>1</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>1</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,63 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1195</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1203.900024414062</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1203.900024414062</v>
+      </c>
+      <c r="G151" t="n">
+        <v>462981</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I151" t="n">
+        <v>6</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>23</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -8925,7 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
-      <c r="R151" t="inlineStr"/>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q155"/>
+  <dimension ref="A1:R160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>1</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>1</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>1</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,279 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1538.599975585938</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1380</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1400.25</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1400.25</v>
+      </c>
+      <c r="G156" t="n">
+        <v>8294804</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I156" t="n">
+        <v>6</v>
+      </c>
+      <c r="J156" t="n">
+        <v>10</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>24</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1408.949951171875</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1351.050048828125</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1365.050048828125</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1365.050048828125</v>
+      </c>
+      <c r="G157" t="n">
+        <v>3783369</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I157" t="n">
+        <v>6</v>
+      </c>
+      <c r="J157" t="n">
+        <v>11</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>24</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1373</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1392</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1336</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1342.449951171875</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1342.449951171875</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2416309</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I158" t="n">
+        <v>6</v>
+      </c>
+      <c r="J158" t="n">
+        <v>12</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>24</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1354</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1363.949951171875</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1335</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1340.650024414062</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1340.650024414062</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1368240</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I159" t="n">
+        <v>6</v>
+      </c>
+      <c r="J159" t="n">
+        <v>13</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>24</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1345.900024414062</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1356.900024414062</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1321</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1339.050048828125</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1339.050048828125</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1494485</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I160" t="n">
+        <v>6</v>
+      </c>
+      <c r="J160" t="n">
+        <v>14</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>24</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -9205,7 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
-      <c r="R156" t="inlineStr"/>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -9259,7 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
-      <c r="R157" t="inlineStr"/>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -9313,7 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
-      <c r="R158" t="inlineStr"/>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -9367,7 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
-      <c r="R159" t="inlineStr"/>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -9421,7 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
-      <c r="R160" t="inlineStr"/>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R160"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9433,6 +9433,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1341.099975585938</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1418</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1339.050048828125</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1370.900024414062</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1370.900024414062</v>
+      </c>
+      <c r="G161" t="n">
+        <v>3450063</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I161" t="n">
+        <v>6</v>
+      </c>
+      <c r="J161" t="n">
+        <v>18</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>25</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R161"/>
+  <dimension ref="A1:R162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8973,7 +8973,7 @@
         <v>23</v>
       </c>
       <c r="O152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P152" t="n">
         <v>0</v>
@@ -9485,7 +9485,63 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
-      <c r="R161" t="inlineStr"/>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1381.900024414062</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1418</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1355</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1398.550048828125</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1398.550048828125</v>
+      </c>
+      <c r="G162" t="n">
+        <v>3201679</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I162" t="n">
+        <v>6</v>
+      </c>
+      <c r="J162" t="n">
+        <v>19</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>25</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R162"/>
+  <dimension ref="A1:R169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9541,7 +9541,387 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
-      <c r="R162" t="inlineStr"/>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1401.199951171875</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1432</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1382.75</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1401</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1401</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2418130</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I163" t="n">
+        <v>6</v>
+      </c>
+      <c r="J163" t="n">
+        <v>20</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>25</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1419.699951171875</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1465.349975585938</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1401</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1409.300048828125</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1409.300048828125</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2949673</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I164" t="n">
+        <v>6</v>
+      </c>
+      <c r="J164" t="n">
+        <v>21</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>25</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1409.050048828125</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1415</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1372</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1380.050048828125</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1380.050048828125</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1111667</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I165" t="n">
+        <v>6</v>
+      </c>
+      <c r="J165" t="n">
+        <v>24</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>26</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1480.849975585938</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1656.050048828125</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1480.849975585938</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1646.199951171875</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1646.199951171875</v>
+      </c>
+      <c r="G166" t="n">
+        <v>21281220</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I166" t="n">
+        <v>6</v>
+      </c>
+      <c r="J166" t="n">
+        <v>25</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>26</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1662</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1775.949951171875</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1669.349975585938</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1669.349975585938</v>
+      </c>
+      <c r="G167" t="n">
+        <v>13195440</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I167" t="n">
+        <v>6</v>
+      </c>
+      <c r="J167" t="n">
+        <v>26</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>26</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1667</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1674</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1609.550048828125</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1609.550048828125</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2640379</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I168" t="n">
+        <v>6</v>
+      </c>
+      <c r="J168" t="n">
+        <v>27</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>26</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1715.650024414062</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1581.199951171875</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1663.150024414062</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1663.150024414062</v>
+      </c>
+      <c r="G169" t="n">
+        <v>3965184</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I169" t="n">
+        <v>6</v>
+      </c>
+      <c r="J169" t="n">
+        <v>28</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>26</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -9597,7 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
-      <c r="R163" t="inlineStr"/>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9651,7 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
-      <c r="R164" t="inlineStr"/>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9705,7 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
-      <c r="R165" t="inlineStr"/>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9759,7 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
-      <c r="R166" t="inlineStr"/>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9813,7 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="R167" t="inlineStr"/>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9867,7 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
-      <c r="R168" t="inlineStr"/>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9921,7 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
-      <c r="R169" t="inlineStr"/>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R169"/>
+  <dimension ref="A1:R174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9937,6 +9937,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1729.800048828125</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1621.75</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1714.949951171875</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1714.949951171875</v>
+      </c>
+      <c r="G170" t="n">
+        <v>3120622</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I170" t="n">
+        <v>7</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>27</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1717</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1726.599975585938</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1672.199951171875</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1680.949951171875</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1680.949951171875</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1651061</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I171" t="n">
+        <v>7</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>27</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1693</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1717</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1661.25</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1703.650024414062</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1703.650024414062</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1230196</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I172" t="n">
+        <v>7</v>
+      </c>
+      <c r="J172" t="n">
+        <v>3</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>27</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1708.900024414062</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1713.400024414062</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1685.150024414062</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1688.5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1688.5</v>
+      </c>
+      <c r="G173" t="n">
+        <v>929259</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I173" t="n">
+        <v>7</v>
+      </c>
+      <c r="J173" t="n">
+        <v>4</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>27</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1689.949951171875</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1705</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1677.699951171875</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1694.650024414062</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1694.650024414062</v>
+      </c>
+      <c r="G174" t="n">
+        <v>674664</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I174" t="n">
+        <v>7</v>
+      </c>
+      <c r="J174" t="n">
+        <v>5</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>27</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R174"/>
+  <dimension ref="A1:R183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9813,7 +9813,7 @@
         <v>26</v>
       </c>
       <c r="O167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P167" t="n">
         <v>0</v>
@@ -9989,7 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
-      <c r="R170" t="inlineStr"/>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -10043,7 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
-      <c r="R171" t="inlineStr"/>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -10097,7 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
-      <c r="R172" t="inlineStr"/>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -10151,7 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
-      <c r="R173" t="inlineStr"/>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -10205,7 +10213,495 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
-      <c r="R174" t="inlineStr"/>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1704</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1745</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1655.150024414062</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1685.349975585938</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1679.874389648438</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1334803</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I175" t="n">
+        <v>7</v>
+      </c>
+      <c r="J175" t="n">
+        <v>8</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>28</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1695.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1700.5</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1651.199951171875</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1669.949951171875</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1664.5244140625</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1015439</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I176" t="n">
+        <v>7</v>
+      </c>
+      <c r="J176" t="n">
+        <v>9</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>28</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1671</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1689.949951171875</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1585.050048828125</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1684.699951171875</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1679.226440429688</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1299890</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I177" t="n">
+        <v>7</v>
+      </c>
+      <c r="J177" t="n">
+        <v>10</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>28</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1684.800048828125</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1689.599975585938</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1643</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1650.75</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1645.386840820312</v>
+      </c>
+      <c r="G178" t="n">
+        <v>596826</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I178" t="n">
+        <v>7</v>
+      </c>
+      <c r="J178" t="n">
+        <v>11</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>28</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1654</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1658.949951171875</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1610</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1615.75</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1610.50048828125</v>
+      </c>
+      <c r="G179" t="n">
+        <v>638784</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I179" t="n">
+        <v>7</v>
+      </c>
+      <c r="J179" t="n">
+        <v>12</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>28</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1636</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1639.800048828125</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1591.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1597.900024414062</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1592.708618164062</v>
+      </c>
+      <c r="G180" t="n">
+        <v>774003</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I180" t="n">
+        <v>7</v>
+      </c>
+      <c r="J180" t="n">
+        <v>15</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>29</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1606.800048828125</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1560</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1569.75</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1564.650024414062</v>
+      </c>
+      <c r="G181" t="n">
+        <v>924497</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I181" t="n">
+        <v>7</v>
+      </c>
+      <c r="J181" t="n">
+        <v>16</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>29</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1570.050048828125</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1658.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1560</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1566.300048828125</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1566.300048828125</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1178767</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I182" t="n">
+        <v>7</v>
+      </c>
+      <c r="J182" t="n">
+        <v>18</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>29</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1585.75</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1595.25</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1540.849975585938</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1540.849975585938</v>
+      </c>
+      <c r="G183" t="n">
+        <v>838987</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I183" t="n">
+        <v>7</v>
+      </c>
+      <c r="J183" t="n">
+        <v>19</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>29</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R183"/>
+  <dimension ref="A1:R193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10269,7 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
-      <c r="R175" t="inlineStr"/>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -10323,7 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
-      <c r="R176" t="inlineStr"/>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -10377,7 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
-      <c r="R177" t="inlineStr"/>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -10431,7 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
-      <c r="R178" t="inlineStr"/>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -10485,7 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
-      <c r="R179" t="inlineStr"/>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10539,7 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10593,7 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
-      <c r="R181" t="inlineStr"/>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10647,7 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
-      <c r="R182" t="inlineStr"/>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10701,7 +10717,549 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
-      <c r="R183" t="inlineStr"/>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1560.25</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1530.900024414062</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1530.900024414062</v>
+      </c>
+      <c r="G184" t="n">
+        <v>624468</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I184" t="n">
+        <v>7</v>
+      </c>
+      <c r="J184" t="n">
+        <v>22</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>30</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1575</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1404</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1545.949951171875</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1545.949951171875</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1340455</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I185" t="n">
+        <v>7</v>
+      </c>
+      <c r="J185" t="n">
+        <v>23</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>30</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1606</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1531.900024414062</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1573.699951171875</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1573.699951171875</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1336287</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I186" t="n">
+        <v>7</v>
+      </c>
+      <c r="J186" t="n">
+        <v>24</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>30</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1572</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1587.650024414062</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1552</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1565.800048828125</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1565.800048828125</v>
+      </c>
+      <c r="G187" t="n">
+        <v>409281</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I187" t="n">
+        <v>7</v>
+      </c>
+      <c r="J187" t="n">
+        <v>25</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>30</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1576</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1690</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1570.050048828125</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1680.449951171875</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1680.449951171875</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1997383</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I188" t="n">
+        <v>7</v>
+      </c>
+      <c r="J188" t="n">
+        <v>26</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>30</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1696.699951171875</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1696.75</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1631.050048828125</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1638.300048828125</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1638.300048828125</v>
+      </c>
+      <c r="G189" t="n">
+        <v>797719</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I189" t="n">
+        <v>7</v>
+      </c>
+      <c r="J189" t="n">
+        <v>29</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>31</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1649.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1625</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1650</v>
+      </c>
+      <c r="G190" t="n">
+        <v>772318</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I190" t="n">
+        <v>7</v>
+      </c>
+      <c r="J190" t="n">
+        <v>30</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>31</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1656</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1664</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1620</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1626.300048828125</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1626.300048828125</v>
+      </c>
+      <c r="G191" t="n">
+        <v>628672</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I191" t="n">
+        <v>7</v>
+      </c>
+      <c r="J191" t="n">
+        <v>31</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>31</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1650.699951171875</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1666</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1595.150024414062</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1604.650024414062</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1604.650024414062</v>
+      </c>
+      <c r="G192" t="n">
+        <v>791602</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I192" t="n">
+        <v>8</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>31</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1598</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1621.949951171875</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1575.449951171875</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1612.349975585938</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1612.349975585938</v>
+      </c>
+      <c r="G193" t="n">
+        <v>678548</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I193" t="n">
+        <v>8</v>
+      </c>
+      <c r="J193" t="n">
+        <v>2</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>31</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R193"/>
+  <dimension ref="A1:R198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10773,7 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
-      <c r="R184" t="inlineStr"/>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10819,7 +10821,7 @@
         <v>30</v>
       </c>
       <c r="O185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P185" t="n">
         <v>0</v>
@@ -10827,7 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
-      <c r="R185" t="inlineStr"/>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10881,7 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
-      <c r="R186" t="inlineStr"/>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10935,7 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
-      <c r="R187" t="inlineStr"/>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10989,7 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
-      <c r="R188" t="inlineStr"/>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -11043,7 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
-      <c r="R189" t="inlineStr"/>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -11097,7 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
-      <c r="R190" t="inlineStr"/>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -11151,7 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
-      <c r="R191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -11205,7 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -11259,7 +11277,279 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1604.949951171875</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1494.050048828125</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1507.550048828125</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1507.550048828125</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1674655</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I194" t="n">
+        <v>8</v>
+      </c>
+      <c r="J194" t="n">
+        <v>5</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>32</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1536.800048828125</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1574.800048828125</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1458.550048828125</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1466.449951171875</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1466.449951171875</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1523884</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I195" t="n">
+        <v>8</v>
+      </c>
+      <c r="J195" t="n">
+        <v>6</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>32</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1465</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1539.800048828125</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1539.800048828125</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1035720</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I196" t="n">
+        <v>8</v>
+      </c>
+      <c r="J196" t="n">
+        <v>7</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>32</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1552.650024414062</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1493.099975585938</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1498.900024414062</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1498.900024414062</v>
+      </c>
+      <c r="G197" t="n">
+        <v>655882</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I197" t="n">
+        <v>8</v>
+      </c>
+      <c r="J197" t="n">
+        <v>8</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>32</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1524.650024414062</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1529.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1495.25</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1505.800048828125</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1505.800048828125</v>
+      </c>
+      <c r="G198" t="n">
+        <v>635551</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I198" t="n">
+        <v>8</v>
+      </c>
+      <c r="J198" t="n">
+        <v>9</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>32</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R198"/>
+  <dimension ref="A1:R202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11045,7 +11045,7 @@
         <v>31</v>
       </c>
       <c r="O189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P189" t="n">
         <v>0</v>
@@ -11333,7 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
-      <c r="R194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -11387,7 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
-      <c r="R195" t="inlineStr"/>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -11441,7 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
-      <c r="R196" t="inlineStr"/>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -11495,7 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -11549,7 +11557,225 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1538</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1638</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1516.199951171875</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1597.699951171875</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1597.699951171875</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2519488</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I199" t="n">
+        <v>8</v>
+      </c>
+      <c r="J199" t="n">
+        <v>12</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>33</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1613.699951171875</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1638.949951171875</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1555.099975585938</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1565.900024414062</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1565.900024414062</v>
+      </c>
+      <c r="G200" t="n">
+        <v>804090</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I200" t="n">
+        <v>8</v>
+      </c>
+      <c r="J200" t="n">
+        <v>13</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>33</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1568</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1575.650024414062</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1524.5</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1549.25</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1549.25</v>
+      </c>
+      <c r="G201" t="n">
+        <v>515931</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I201" t="n">
+        <v>8</v>
+      </c>
+      <c r="J201" t="n">
+        <v>14</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>33</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1569</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1576.449951171875</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1547.449951171875</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1561</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1561</v>
+      </c>
+      <c r="G202" t="n">
+        <v>263711</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I202" t="n">
+        <v>8</v>
+      </c>
+      <c r="J202" t="n">
+        <v>16</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>33</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R202" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R202"/>
+  <dimension ref="A1:R207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11613,7 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
-      <c r="R199" t="inlineStr"/>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11667,7 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
-      <c r="R200" t="inlineStr"/>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11721,7 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
-      <c r="R201" t="inlineStr"/>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11775,7 +11781,279 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
-      <c r="R202" t="inlineStr"/>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1574.25</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1579.849975585938</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1545.150024414062</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1556.300048828125</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1556.300048828125</v>
+      </c>
+      <c r="G203" t="n">
+        <v>360432</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I203" t="n">
+        <v>8</v>
+      </c>
+      <c r="J203" t="n">
+        <v>19</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>34</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1564.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1528.050048828125</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1542.099975585938</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1542.099975585938</v>
+      </c>
+      <c r="G204" t="n">
+        <v>371399</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I204" t="n">
+        <v>8</v>
+      </c>
+      <c r="J204" t="n">
+        <v>20</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>34</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1542.099975585938</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1564</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1528</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1554</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1554</v>
+      </c>
+      <c r="G205" t="n">
+        <v>335818</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I205" t="n">
+        <v>8</v>
+      </c>
+      <c r="J205" t="n">
+        <v>21</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>34</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1557</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1583.800048828125</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1548.25</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1548.25</v>
+      </c>
+      <c r="G206" t="n">
+        <v>440257</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I206" t="n">
+        <v>8</v>
+      </c>
+      <c r="J206" t="n">
+        <v>22</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>34</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1552</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1524.099975585938</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1527.349975585938</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1527.349975585938</v>
+      </c>
+      <c r="G207" t="n">
+        <v>354747</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I207" t="n">
+        <v>8</v>
+      </c>
+      <c r="J207" t="n">
+        <v>23</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>34</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R207"/>
+  <dimension ref="A1:R211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11837,7 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
-      <c r="R203" t="inlineStr"/>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11891,7 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
-      <c r="R204" t="inlineStr"/>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11945,7 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
-      <c r="R205" t="inlineStr"/>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11999,7 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
-      <c r="R206" t="inlineStr"/>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -12053,7 +12061,225 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1536.800048828125</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1536.800048828125</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1510.050048828125</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1514.900024414062</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1514.900024414062</v>
+      </c>
+      <c r="G208" t="n">
+        <v>293771</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I208" t="n">
+        <v>8</v>
+      </c>
+      <c r="J208" t="n">
+        <v>26</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>35</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1569.949951171875</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1576.800048828125</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1530</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1535.599975585938</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1535.599975585938</v>
+      </c>
+      <c r="G209" t="n">
+        <v>507968</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I209" t="n">
+        <v>8</v>
+      </c>
+      <c r="J209" t="n">
+        <v>28</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>35</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1539.800048828125</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1548.949951171875</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1510.599975585938</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1520.449951171875</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1520.449951171875</v>
+      </c>
+      <c r="G210" t="n">
+        <v>392107</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I210" t="n">
+        <v>8</v>
+      </c>
+      <c r="J210" t="n">
+        <v>29</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>35</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1522</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1537.75</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1518</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1521.25</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1521.25</v>
+      </c>
+      <c r="G211" t="n">
+        <v>422094</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I211" t="n">
+        <v>8</v>
+      </c>
+      <c r="J211" t="n">
+        <v>30</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>35</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R211"/>
+  <dimension ref="A1:R216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12117,7 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
-      <c r="R208" t="inlineStr"/>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -12171,7 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
-      <c r="R209" t="inlineStr"/>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -12225,7 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
-      <c r="R210" t="inlineStr"/>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -12279,7 +12285,279 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
-      <c r="R211" t="inlineStr"/>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1528.25</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1530</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1503.849975585938</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1503.849975585938</v>
+      </c>
+      <c r="G212" t="n">
+        <v>363096</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I212" t="n">
+        <v>9</v>
+      </c>
+      <c r="J212" t="n">
+        <v>2</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>36</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1502</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1527.949951171875</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1495.5</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1509.400024414062</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1509.400024414062</v>
+      </c>
+      <c r="G213" t="n">
+        <v>309679</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I213" t="n">
+        <v>9</v>
+      </c>
+      <c r="J213" t="n">
+        <v>3</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>36</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1499</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1518.849975585938</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1484</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1487.150024414062</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1487.150024414062</v>
+      </c>
+      <c r="G214" t="n">
+        <v>437224</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I214" t="n">
+        <v>9</v>
+      </c>
+      <c r="J214" t="n">
+        <v>4</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>36</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1419.050048828125</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1482.849975585938</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1419.050048828125</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1447.5</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1447.5</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1643695</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I215" t="n">
+        <v>9</v>
+      </c>
+      <c r="J215" t="n">
+        <v>5</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>36</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1457</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1467.900024414062</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1412.599975585938</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1417.650024414062</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1417.650024414062</v>
+      </c>
+      <c r="G216" t="n">
+        <v>714416</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I216" t="n">
+        <v>9</v>
+      </c>
+      <c r="J216" t="n">
+        <v>6</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>36</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R216"/>
+  <dimension ref="A1:R221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12341,7 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
-      <c r="R212" t="inlineStr"/>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -12395,7 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
-      <c r="R213" t="inlineStr"/>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -12449,7 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
-      <c r="R214" t="inlineStr"/>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -12503,7 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
-      <c r="R215" t="inlineStr"/>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -12557,7 +12565,279 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
-      <c r="R216" t="inlineStr"/>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1417.650024414062</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1424.650024414062</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1383.25</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1411.449951171875</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1411.449951171875</v>
+      </c>
+      <c r="G217" t="n">
+        <v>523703</v>
+      </c>
+      <c r="H217" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I217" t="n">
+        <v>9</v>
+      </c>
+      <c r="J217" t="n">
+        <v>9</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>37</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1453</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1417</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1424.300048828125</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1424.300048828125</v>
+      </c>
+      <c r="G218" t="n">
+        <v>327033</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I218" t="n">
+        <v>9</v>
+      </c>
+      <c r="J218" t="n">
+        <v>10</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>37</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1434.599975585938</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1434.800048828125</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1396.449951171875</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G219" t="n">
+        <v>324251</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I219" t="n">
+        <v>9</v>
+      </c>
+      <c r="J219" t="n">
+        <v>11</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>37</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1415</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1389</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1402.449951171875</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1402.449951171875</v>
+      </c>
+      <c r="G220" t="n">
+        <v>487440</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I220" t="n">
+        <v>9</v>
+      </c>
+      <c r="J220" t="n">
+        <v>12</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>37</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1440.199951171875</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1404.800048828125</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1410.550048828125</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1410.550048828125</v>
+      </c>
+      <c r="G221" t="n">
+        <v>354484</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I221" t="n">
+        <v>9</v>
+      </c>
+      <c r="J221" t="n">
+        <v>13</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>37</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R221"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12621,7 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
-      <c r="R217" t="inlineStr"/>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12675,7 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
-      <c r="R218" t="inlineStr"/>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12729,7 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
-      <c r="R219" t="inlineStr"/>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12783,7 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
-      <c r="R220" t="inlineStr"/>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12837,7 +12845,279 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
-      <c r="R221" t="inlineStr"/>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1430.099975585938</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1434</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1397.300048828125</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1405.150024414062</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1405.150024414062</v>
+      </c>
+      <c r="G222" t="n">
+        <v>313097</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I222" t="n">
+        <v>9</v>
+      </c>
+      <c r="J222" t="n">
+        <v>16</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>38</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1405.150024414062</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1397</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G223" t="n">
+        <v>254720</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I223" t="n">
+        <v>9</v>
+      </c>
+      <c r="J223" t="n">
+        <v>17</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>38</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1411.699951171875</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1378.349975585938</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1391.75</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1391.75</v>
+      </c>
+      <c r="G224" t="n">
+        <v>284304</v>
+      </c>
+      <c r="H224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I224" t="n">
+        <v>9</v>
+      </c>
+      <c r="J224" t="n">
+        <v>18</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>38</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1392.949951171875</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1406.599975585938</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1373.400024414062</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1373.400024414062</v>
+      </c>
+      <c r="G225" t="n">
+        <v>540869</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I225" t="n">
+        <v>9</v>
+      </c>
+      <c r="J225" t="n">
+        <v>19</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>38</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1373.400024414062</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1408</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1362.050048828125</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1381.099975585938</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1381.099975585938</v>
+      </c>
+      <c r="G226" t="n">
+        <v>494731</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I226" t="n">
+        <v>9</v>
+      </c>
+      <c r="J226" t="n">
+        <v>20</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>38</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R226"/>
+  <dimension ref="A1:R231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12901,7 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
-      <c r="R222" t="inlineStr"/>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12955,7 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
-      <c r="R223" t="inlineStr"/>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -13009,7 +13013,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
-      <c r="R224" t="inlineStr"/>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -13063,7 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
-      <c r="R225" t="inlineStr"/>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -13117,7 +13125,279 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
-      <c r="R226" t="inlineStr"/>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1401</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1413.099975585938</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1372.650024414062</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1375.199951171875</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1375.199951171875</v>
+      </c>
+      <c r="G227" t="n">
+        <v>485331</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I227" t="n">
+        <v>9</v>
+      </c>
+      <c r="J227" t="n">
+        <v>23</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>39</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1388.800048828125</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1388.800048828125</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1361.5</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1364</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1364</v>
+      </c>
+      <c r="G228" t="n">
+        <v>395231</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I228" t="n">
+        <v>9</v>
+      </c>
+      <c r="J228" t="n">
+        <v>24</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>39</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1371.150024414062</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1395</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1353</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1365.5</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1365.5</v>
+      </c>
+      <c r="G229" t="n">
+        <v>381364</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I229" t="n">
+        <v>9</v>
+      </c>
+      <c r="J229" t="n">
+        <v>25</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>39</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1365.5</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1369.699951171875</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1325</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1329.949951171875</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1329.949951171875</v>
+      </c>
+      <c r="G230" t="n">
+        <v>777024</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I230" t="n">
+        <v>9</v>
+      </c>
+      <c r="J230" t="n">
+        <v>26</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>39</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1324</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1398.349975585938</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1317.199951171875</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1392.150024414062</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1392.150024414062</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1225422</v>
+      </c>
+      <c r="H231" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I231" t="n">
+        <v>9</v>
+      </c>
+      <c r="J231" t="n">
+        <v>27</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>39</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R231"/>
+  <dimension ref="A1:R235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13181,7 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
-      <c r="R227" t="inlineStr"/>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -13235,7 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
-      <c r="R228" t="inlineStr"/>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -13289,7 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
-      <c r="R229" t="inlineStr"/>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -13343,7 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
-      <c r="R230" t="inlineStr"/>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -13397,7 +13405,225 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
-      <c r="R231" t="inlineStr"/>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1432</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1351</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1425.949951171875</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1425.949951171875</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1352982</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I232" t="n">
+        <v>9</v>
+      </c>
+      <c r="J232" t="n">
+        <v>30</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>40</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1438</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1444</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1398.300048828125</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1411.849975585938</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1411.849975585938</v>
+      </c>
+      <c r="G233" t="n">
+        <v>805767</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I233" t="n">
+        <v>10</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>40</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1379.949951171875</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1401</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1350.050048828125</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1355.900024414062</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1355.900024414062</v>
+      </c>
+      <c r="G234" t="n">
+        <v>951603</v>
+      </c>
+      <c r="H234" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I234" t="n">
+        <v>10</v>
+      </c>
+      <c r="J234" t="n">
+        <v>3</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>40</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1355.900024414062</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1391.949951171875</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1335</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1379.599975585938</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1379.599975585938</v>
+      </c>
+      <c r="G235" t="n">
+        <v>686454</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I235" t="n">
+        <v>10</v>
+      </c>
+      <c r="J235" t="n">
+        <v>4</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>40</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R235"/>
+  <dimension ref="A1:R240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13461,7 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
-      <c r="R232" t="inlineStr"/>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -13515,7 +13517,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
-      <c r="R233" t="inlineStr"/>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -13569,7 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
-      <c r="R234" t="inlineStr"/>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -13623,7 +13629,279 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
-      <c r="R235" t="inlineStr"/>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1382</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1391.949951171875</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1306</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1324.400024414062</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1324.400024414062</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1071552</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I236" t="n">
+        <v>10</v>
+      </c>
+      <c r="J236" t="n">
+        <v>7</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>41</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1326.949951171875</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1342.949951171875</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1297</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1336.849975585938</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1336.849975585938</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1179239</v>
+      </c>
+      <c r="H237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I237" t="n">
+        <v>10</v>
+      </c>
+      <c r="J237" t="n">
+        <v>8</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>41</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1359</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1395.449951171875</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1346.300048828125</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1375.150024414062</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1375.150024414062</v>
+      </c>
+      <c r="G238" t="n">
+        <v>596984</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I238" t="n">
+        <v>10</v>
+      </c>
+      <c r="J238" t="n">
+        <v>9</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>41</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1392</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1413</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1381</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1399.599975585938</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1399.599975585938</v>
+      </c>
+      <c r="G239" t="n">
+        <v>505009</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I239" t="n">
+        <v>10</v>
+      </c>
+      <c r="J239" t="n">
+        <v>10</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>41</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1412.199951171875</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1422.550048828125</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1386</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1406.900024414062</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1406.900024414062</v>
+      </c>
+      <c r="G240" t="n">
+        <v>387832</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I240" t="n">
+        <v>10</v>
+      </c>
+      <c r="J240" t="n">
+        <v>11</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>41</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R240"/>
+  <dimension ref="A1:R245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13509,7 +13509,7 @@
         <v>40</v>
       </c>
       <c r="O233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P233" t="n">
         <v>0</v>
@@ -13685,7 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
-      <c r="R236" t="inlineStr"/>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13739,7 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
-      <c r="R237" t="inlineStr"/>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13793,7 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
-      <c r="R238" t="inlineStr"/>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13847,7 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
-      <c r="R239" t="inlineStr"/>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13901,7 +13909,279 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
-      <c r="R240" t="inlineStr"/>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1407</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1414.900024414062</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1388</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1391.099975585938</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1391.099975585938</v>
+      </c>
+      <c r="G241" t="n">
+        <v>283469</v>
+      </c>
+      <c r="H241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I241" t="n">
+        <v>10</v>
+      </c>
+      <c r="J241" t="n">
+        <v>14</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>42</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1399.650024414062</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1402</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1385.800048828125</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1393.650024414062</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1393.650024414062</v>
+      </c>
+      <c r="G242" t="n">
+        <v>399130</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I242" t="n">
+        <v>10</v>
+      </c>
+      <c r="J242" t="n">
+        <v>15</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>42</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1407.400024414062</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1381.550048828125</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1398.599975585938</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1398.599975585938</v>
+      </c>
+      <c r="G243" t="n">
+        <v>455909</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I243" t="n">
+        <v>10</v>
+      </c>
+      <c r="J243" t="n">
+        <v>16</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>42</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1407</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1407</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1362.650024414062</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1368.800048828125</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1368.800048828125</v>
+      </c>
+      <c r="G244" t="n">
+        <v>306807</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I244" t="n">
+        <v>10</v>
+      </c>
+      <c r="J244" t="n">
+        <v>17</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>42</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1368.800048828125</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1378</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1338.699951171875</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1342.349975585938</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1342.349975585938</v>
+      </c>
+      <c r="G245" t="n">
+        <v>355524</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I245" t="n">
+        <v>10</v>
+      </c>
+      <c r="J245" t="n">
+        <v>18</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>42</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R245"/>
+  <dimension ref="A1:R250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13965,7 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
-      <c r="R241" t="inlineStr"/>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -14019,7 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
-      <c r="R242" t="inlineStr"/>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -14073,7 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
-      <c r="R243" t="inlineStr"/>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -14127,7 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
-      <c r="R244" t="inlineStr"/>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -14181,7 +14189,279 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
-      <c r="R245" t="inlineStr"/>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1356</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1358</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1328</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1330.25</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1330.25</v>
+      </c>
+      <c r="G246" t="n">
+        <v>234822</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I246" t="n">
+        <v>10</v>
+      </c>
+      <c r="J246" t="n">
+        <v>21</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>43</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1325</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1328</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1254.050048828125</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1260.5</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1260.5</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1126148</v>
+      </c>
+      <c r="H247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I247" t="n">
+        <v>10</v>
+      </c>
+      <c r="J247" t="n">
+        <v>22</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>43</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1274.5</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1232.199951171875</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1274.199951171875</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1274.199951171875</v>
+      </c>
+      <c r="G248" t="n">
+        <v>591936</v>
+      </c>
+      <c r="H248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I248" t="n">
+        <v>10</v>
+      </c>
+      <c r="J248" t="n">
+        <v>23</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>43</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1274.199951171875</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1260.050048828125</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1263.599975585938</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1263.599975585938</v>
+      </c>
+      <c r="G249" t="n">
+        <v>258295</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I249" t="n">
+        <v>10</v>
+      </c>
+      <c r="J249" t="n">
+        <v>24</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>43</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1270</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1218.849975585938</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1241.800048828125</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1241.800048828125</v>
+      </c>
+      <c r="G250" t="n">
+        <v>594729</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I250" t="n">
+        <v>10</v>
+      </c>
+      <c r="J250" t="n">
+        <v>25</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>43</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R250"/>
+  <dimension ref="A1:R253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14245,7 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
-      <c r="R246" t="inlineStr"/>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -14299,7 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
-      <c r="R247" t="inlineStr"/>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -14353,7 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
-      <c r="R248" t="inlineStr"/>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -14407,7 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
-      <c r="R249" t="inlineStr"/>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -14461,7 +14469,171 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
-      <c r="R250" t="inlineStr"/>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1266.650024414062</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1363.449951171875</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1260</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1321.449951171875</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1321.449951171875</v>
+      </c>
+      <c r="G251" t="n">
+        <v>2940610</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I251" t="n">
+        <v>10</v>
+      </c>
+      <c r="J251" t="n">
+        <v>28</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>44</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1342</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1364.400024414062</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1310</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1329.75</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1329.75</v>
+      </c>
+      <c r="G252" t="n">
+        <v>927364</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I252" t="n">
+        <v>10</v>
+      </c>
+      <c r="J252" t="n">
+        <v>29</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>44</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1357.300048828125</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1397.849975585938</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1340.400024414062</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1390.599975585938</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1390.599975585938</v>
+      </c>
+      <c r="G253" t="n">
+        <v>584430</v>
+      </c>
+      <c r="H253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I253" t="n">
+        <v>10</v>
+      </c>
+      <c r="J253" t="n">
+        <v>31</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>44</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R253"/>
+  <dimension ref="A1:R258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14525,7 +14525,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
-      <c r="R251" t="inlineStr"/>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -14579,7 +14581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
-      <c r="R252" t="inlineStr"/>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -14633,7 +14637,279 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
-      <c r="R253" t="inlineStr"/>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1404.5</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1422</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1396.050048828125</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1405.300048828125</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1405.300048828125</v>
+      </c>
+      <c r="G254" t="n">
+        <v>203604</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I254" t="n">
+        <v>11</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>44</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1409</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1409</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1348</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1374.25</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1374.25</v>
+      </c>
+      <c r="G255" t="n">
+        <v>631911</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I255" t="n">
+        <v>11</v>
+      </c>
+      <c r="J255" t="n">
+        <v>4</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>45</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1337.099975585938</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1344.650024414062</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1324.050048828125</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1331.699951171875</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1331.699951171875</v>
+      </c>
+      <c r="G256" t="n">
+        <v>628362</v>
+      </c>
+      <c r="H256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I256" t="n">
+        <v>11</v>
+      </c>
+      <c r="J256" t="n">
+        <v>6</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>45</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1331.900024414062</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1338.099975585938</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1308.400024414062</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1311.25</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1311.25</v>
+      </c>
+      <c r="G257" t="n">
+        <v>504057</v>
+      </c>
+      <c r="H257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I257" t="n">
+        <v>11</v>
+      </c>
+      <c r="J257" t="n">
+        <v>7</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>45</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1315.050048828125</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1324.75</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1294</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1303.449951171875</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1303.449951171875</v>
+      </c>
+      <c r="G258" t="n">
+        <v>398033</v>
+      </c>
+      <c r="H258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I258" t="n">
+        <v>11</v>
+      </c>
+      <c r="J258" t="n">
+        <v>8</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>45</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R258"/>
+  <dimension ref="A1:R262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14461,7 +14461,7 @@
         <v>43</v>
       </c>
       <c r="O250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P250" t="n">
         <v>0</v>
@@ -14693,7 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
-      <c r="R254" t="inlineStr"/>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -14747,7 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
-      <c r="R255" t="inlineStr"/>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14801,7 +14805,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
-      <c r="R256" t="inlineStr"/>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14855,7 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
-      <c r="R257" t="inlineStr"/>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14909,7 +14917,225 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
-      <c r="R258" t="inlineStr"/>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1304.599975585938</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1276.599975585938</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1287.849975585938</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1282.373657226562</v>
+      </c>
+      <c r="G259" t="n">
+        <v>408698</v>
+      </c>
+      <c r="H259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I259" t="n">
+        <v>11</v>
+      </c>
+      <c r="J259" t="n">
+        <v>11</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>46</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1289.900024414062</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1305</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1263</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1269.650024414062</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1264.251098632812</v>
+      </c>
+      <c r="G260" t="n">
+        <v>387984</v>
+      </c>
+      <c r="H260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I260" t="n">
+        <v>11</v>
+      </c>
+      <c r="J260" t="n">
+        <v>12</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>46</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1304.449951171875</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1238</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1246.400024414062</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1241.099975585938</v>
+      </c>
+      <c r="G261" t="n">
+        <v>564205</v>
+      </c>
+      <c r="H261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I261" t="n">
+        <v>11</v>
+      </c>
+      <c r="J261" t="n">
+        <v>13</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>46</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1254.800048828125</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1269.949951171875</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1245</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1255.599975585938</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1255.599975585938</v>
+      </c>
+      <c r="G262" t="n">
+        <v>355341</v>
+      </c>
+      <c r="H262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I262" t="n">
+        <v>11</v>
+      </c>
+      <c r="J262" t="n">
+        <v>14</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>46</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R262"/>
+  <dimension ref="A1:R266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14685,7 +14685,7 @@
         <v>44</v>
       </c>
       <c r="O254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P254" t="n">
         <v>0</v>
@@ -14973,7 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
-      <c r="R259" t="inlineStr"/>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -15027,7 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
-      <c r="R260" t="inlineStr"/>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -15081,7 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
-      <c r="R261" t="inlineStr"/>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -15135,7 +15141,225 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
-      <c r="R262" t="inlineStr"/>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1259.25</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1275.599975585938</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1221</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1224.75</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1224.75</v>
+      </c>
+      <c r="G263" t="n">
+        <v>458795</v>
+      </c>
+      <c r="H263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I263" t="n">
+        <v>11</v>
+      </c>
+      <c r="J263" t="n">
+        <v>18</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>47</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1278.349975585938</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1230</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1247.800048828125</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1247.800048828125</v>
+      </c>
+      <c r="G264" t="n">
+        <v>528143</v>
+      </c>
+      <c r="H264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I264" t="n">
+        <v>11</v>
+      </c>
+      <c r="J264" t="n">
+        <v>19</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>47</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1247.800048828125</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1247.800048828125</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1221</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1224.349975585938</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1224.349975585938</v>
+      </c>
+      <c r="G265" t="n">
+        <v>387474</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I265" t="n">
+        <v>11</v>
+      </c>
+      <c r="J265" t="n">
+        <v>21</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>47</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1239.599975585938</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1209.050048828125</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1228.25</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1228.25</v>
+      </c>
+      <c r="G266" t="n">
+        <v>314643</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I266" t="n">
+        <v>11</v>
+      </c>
+      <c r="J266" t="n">
+        <v>22</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>47</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R266"/>
+  <dimension ref="A1:R271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15197,7 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
-      <c r="R263" t="inlineStr"/>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -15251,7 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
-      <c r="R264" t="inlineStr"/>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -15305,7 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
-      <c r="R265" t="inlineStr"/>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -15359,7 +15365,279 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
-      <c r="R266" t="inlineStr"/>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1277.300048828125</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1238.050048828125</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1241.849975585938</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1241.849975585938</v>
+      </c>
+      <c r="G267" t="n">
+        <v>471930</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I267" t="n">
+        <v>11</v>
+      </c>
+      <c r="J267" t="n">
+        <v>25</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>48</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1249.75</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1258</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1224.050048828125</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1231.400024414062</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1231.400024414062</v>
+      </c>
+      <c r="G268" t="n">
+        <v>458079</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I268" t="n">
+        <v>11</v>
+      </c>
+      <c r="J268" t="n">
+        <v>26</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>48</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1236.400024414062</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1274.900024414062</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1225.599975585938</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1269.949951171875</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1269.949951171875</v>
+      </c>
+      <c r="G269" t="n">
+        <v>586100</v>
+      </c>
+      <c r="H269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I269" t="n">
+        <v>11</v>
+      </c>
+      <c r="J269" t="n">
+        <v>27</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>48</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1279.900024414062</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1280.800048828125</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1255.099975585938</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1264.650024414062</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1264.650024414062</v>
+      </c>
+      <c r="G270" t="n">
+        <v>633611</v>
+      </c>
+      <c r="H270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I270" t="n">
+        <v>11</v>
+      </c>
+      <c r="J270" t="n">
+        <v>28</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>48</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1264.699951171875</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1285</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1259.099975585938</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1280.699951171875</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1280.699951171875</v>
+      </c>
+      <c r="G271" t="n">
+        <v>358987</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I271" t="n">
+        <v>11</v>
+      </c>
+      <c r="J271" t="n">
+        <v>29</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>48</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R271"/>
+  <dimension ref="A1:R276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15357,7 +15357,7 @@
         <v>47</v>
       </c>
       <c r="O266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P266" t="n">
         <v>0</v>
@@ -15421,7 +15421,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
-      <c r="R267" t="inlineStr"/>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -15475,7 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
-      <c r="R268" t="inlineStr"/>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -15529,7 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
-      <c r="R269" t="inlineStr"/>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -15583,7 +15589,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
-      <c r="R270" t="inlineStr"/>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -15637,7 +15645,279 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
-      <c r="R271" t="inlineStr"/>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1296</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1263</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1290.75</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1290.75</v>
+      </c>
+      <c r="G272" t="n">
+        <v>387545</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I272" t="n">
+        <v>12</v>
+      </c>
+      <c r="J272" t="n">
+        <v>2</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>49</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1297</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1337.5</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1294</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1318.75</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1318.75</v>
+      </c>
+      <c r="G273" t="n">
+        <v>550410</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I273" t="n">
+        <v>12</v>
+      </c>
+      <c r="J273" t="n">
+        <v>3</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>49</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1325</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1328.699951171875</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1309</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1320.900024414062</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1320.900024414062</v>
+      </c>
+      <c r="G274" t="n">
+        <v>465755</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I274" t="n">
+        <v>12</v>
+      </c>
+      <c r="J274" t="n">
+        <v>4</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>49</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1330.900024414062</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1344.949951171875</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1318</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1326.5</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1326.5</v>
+      </c>
+      <c r="G275" t="n">
+        <v>403370</v>
+      </c>
+      <c r="H275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I275" t="n">
+        <v>12</v>
+      </c>
+      <c r="J275" t="n">
+        <v>5</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>49</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1334.800048828125</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1339.400024414062</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1315.25</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1330.650024414062</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1330.650024414062</v>
+      </c>
+      <c r="G276" t="n">
+        <v>403463</v>
+      </c>
+      <c r="H276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I276" t="n">
+        <v>12</v>
+      </c>
+      <c r="J276" t="n">
+        <v>6</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>49</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R276" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R276"/>
+  <dimension ref="A1:R286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15701,7 +15701,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
-      <c r="R272" t="inlineStr"/>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -15755,7 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
-      <c r="R273" t="inlineStr"/>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -15809,7 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
-      <c r="R274" t="inlineStr"/>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15863,7 +15869,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
-      <c r="R275" t="inlineStr"/>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15917,7 +15925,529 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
-      <c r="R276" t="inlineStr"/>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1333</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1315.949951171875</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1322.599975585938</v>
+      </c>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>506582</v>
+      </c>
+      <c r="H277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I277" t="n">
+        <v>12</v>
+      </c>
+      <c r="J277" t="n">
+        <v>9</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>50</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1306</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1309.75</v>
+      </c>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>322970</v>
+      </c>
+      <c r="H278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I278" t="n">
+        <v>12</v>
+      </c>
+      <c r="J278" t="n">
+        <v>10</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>50</v>
+      </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1311.900024414062</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1303</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1315.949951171875</v>
+      </c>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>545984</v>
+      </c>
+      <c r="H279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I279" t="n">
+        <v>12</v>
+      </c>
+      <c r="J279" t="n">
+        <v>11</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>50</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1315.949951171875</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1318.800048828125</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1290.599975585938</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1296.349975585938</v>
+      </c>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>283498</v>
+      </c>
+      <c r="H280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I280" t="n">
+        <v>12</v>
+      </c>
+      <c r="J280" t="n">
+        <v>12</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>50</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1286</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1272.550048828125</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1293.699951171875</v>
+      </c>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>202716</v>
+      </c>
+      <c r="H281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I281" t="n">
+        <v>12</v>
+      </c>
+      <c r="J281" t="n">
+        <v>13</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>50</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1293.5</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1303.650024414062</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1264.900024414062</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1281.900024414062</v>
+      </c>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>457740</v>
+      </c>
+      <c r="H282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I282" t="n">
+        <v>12</v>
+      </c>
+      <c r="J282" t="n">
+        <v>16</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>51</v>
+      </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1289</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1310.5</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1252.099975585938</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1260.699951171875</v>
+      </c>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>496575</v>
+      </c>
+      <c r="H283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I283" t="n">
+        <v>12</v>
+      </c>
+      <c r="J283" t="n">
+        <v>17</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>51</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1260.699951171875</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1269.349975585938</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1228.050048828125</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1240.650024414062</v>
+      </c>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>429369</v>
+      </c>
+      <c r="H284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I284" t="n">
+        <v>12</v>
+      </c>
+      <c r="J284" t="n">
+        <v>18</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>51</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1223.650024414062</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1240</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1206</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1220.099975585938</v>
+      </c>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>342377</v>
+      </c>
+      <c r="H285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I285" t="n">
+        <v>12</v>
+      </c>
+      <c r="J285" t="n">
+        <v>19</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>51</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1266.949951171875</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1274.949951171875</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1185</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1197.349975585938</v>
+      </c>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="n">
+        <v>1453399</v>
+      </c>
+      <c r="H286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I286" t="n">
+        <v>12</v>
+      </c>
+      <c r="J286" t="n">
+        <v>20</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>51</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R286"/>
+  <dimension ref="A1:R290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15971,7 +15971,7 @@
         <v>50</v>
       </c>
       <c r="O277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P277" t="n">
         <v>1</v>
@@ -15979,7 +15979,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
-      <c r="R277" t="inlineStr"/>
+      <c r="R277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -16031,7 +16033,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
-      <c r="R278" t="inlineStr"/>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -16083,7 +16087,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
-      <c r="R279" t="inlineStr"/>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -16135,7 +16141,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
-      <c r="R280" t="inlineStr"/>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -16187,7 +16195,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
-      <c r="R281" t="inlineStr"/>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -16239,7 +16249,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
-      <c r="R282" t="inlineStr"/>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -16291,7 +16303,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
-      <c r="R283" t="inlineStr"/>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -16343,7 +16357,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
-      <c r="R284" t="inlineStr"/>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -16395,7 +16411,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
-      <c r="R285" t="inlineStr"/>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -16447,7 +16465,217 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
-      <c r="R286" t="inlineStr"/>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1217.949951171875</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1217.949951171875</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1157</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="n">
+        <v>678750</v>
+      </c>
+      <c r="H287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I287" t="n">
+        <v>12</v>
+      </c>
+      <c r="J287" t="n">
+        <v>23</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>52</v>
+      </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1167</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1161</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1194.75</v>
+      </c>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="n">
+        <v>451397</v>
+      </c>
+      <c r="H288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I288" t="n">
+        <v>12</v>
+      </c>
+      <c r="J288" t="n">
+        <v>24</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>52</v>
+      </c>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1204.849975585938</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1242</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1189.5</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1206.5</v>
+      </c>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="n">
+        <v>1163457</v>
+      </c>
+      <c r="H289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I289" t="n">
+        <v>12</v>
+      </c>
+      <c r="J289" t="n">
+        <v>26</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>52</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1212.699951171875</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1225</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1205.050048828125</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1219.349975585938</v>
+      </c>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="n">
+        <v>313292</v>
+      </c>
+      <c r="H290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I290" t="n">
+        <v>12</v>
+      </c>
+      <c r="J290" t="n">
+        <v>27</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>52</v>
+      </c>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R290" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R290"/>
+  <dimension ref="A1:R295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16519,7 +16519,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
-      <c r="R287" t="inlineStr"/>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -16571,7 +16573,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
-      <c r="R288" t="inlineStr"/>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -16623,7 +16627,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
-      <c r="R289" t="inlineStr"/>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -16675,7 +16681,269 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
-      <c r="R290" t="inlineStr"/>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1231.199951171875</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1177</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1184.050048828125</v>
+      </c>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="n">
+        <v>479885</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I291" t="n">
+        <v>12</v>
+      </c>
+      <c r="J291" t="n">
+        <v>30</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>1</v>
+      </c>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1184.050048828125</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1181.199951171875</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1199.949951171875</v>
+      </c>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="n">
+        <v>382526</v>
+      </c>
+      <c r="H292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I292" t="n">
+        <v>12</v>
+      </c>
+      <c r="J292" t="n">
+        <v>31</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>1</v>
+      </c>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1202.800048828125</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1220.050048828125</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1195.599975585938</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1210.5</v>
+      </c>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="n">
+        <v>362201</v>
+      </c>
+      <c r="H293" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1</v>
+      </c>
+      <c r="J293" t="n">
+        <v>1</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+      <c r="O293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1218.550048828125</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1190.050048828125</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1200.150024414062</v>
+      </c>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="n">
+        <v>441644</v>
+      </c>
+      <c r="H294" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>2</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>1</v>
+      </c>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1208.400024414062</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1214.5</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1186.050048828125</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1189.900024414062</v>
+      </c>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="n">
+        <v>445716</v>
+      </c>
+      <c r="H295" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I295" t="n">
+        <v>1</v>
+      </c>
+      <c r="J295" t="n">
+        <v>3</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>1</v>
+      </c>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R295" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R295"/>
+  <dimension ref="A1:R300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16735,7 +16735,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
-      <c r="R291" t="inlineStr"/>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -16787,7 +16789,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
-      <c r="R292" t="inlineStr"/>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -16839,7 +16843,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
-      <c r="R293" t="inlineStr"/>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16891,7 +16897,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
-      <c r="R294" t="inlineStr"/>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16943,7 +16951,269 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
-      <c r="R295" t="inlineStr"/>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1189.900024414062</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1196.949951171875</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1141.25</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1147.599975585938</v>
+      </c>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="n">
+        <v>487952</v>
+      </c>
+      <c r="H296" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I296" t="n">
+        <v>1</v>
+      </c>
+      <c r="J296" t="n">
+        <v>6</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>2</v>
+      </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1147.599975585938</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1162.25</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1137</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1140.349975585938</v>
+      </c>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="n">
+        <v>328285</v>
+      </c>
+      <c r="H297" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1</v>
+      </c>
+      <c r="J297" t="n">
+        <v>7</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>2</v>
+      </c>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1144.599975585938</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1147.400024414062</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1102.050048828125</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1107.099975585938</v>
+      </c>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="n">
+        <v>613037</v>
+      </c>
+      <c r="H298" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>8</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>2</v>
+      </c>
+      <c r="O298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1107.949951171875</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1129.5</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1101.800048828125</v>
+      </c>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="n">
+        <v>390224</v>
+      </c>
+      <c r="H299" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1</v>
+      </c>
+      <c r="J299" t="n">
+        <v>9</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>2</v>
+      </c>
+      <c r="O299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1107</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1107</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1061.5</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1079.349975585938</v>
+      </c>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="n">
+        <v>885154</v>
+      </c>
+      <c r="H300" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I300" t="n">
+        <v>1</v>
+      </c>
+      <c r="J300" t="n">
+        <v>10</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>2</v>
+      </c>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R300" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R300"/>
+  <dimension ref="A1:R305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17005,7 +17005,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
-      <c r="R296" t="inlineStr"/>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -17057,7 +17059,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
-      <c r="R297" t="inlineStr"/>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -17109,7 +17113,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
-      <c r="R298" t="inlineStr"/>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -17161,7 +17167,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
-      <c r="R299" t="inlineStr"/>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -17213,7 +17221,269 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
-      <c r="R300" t="inlineStr"/>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1075</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1097.849975585938</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1027.050048828125</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1036.300048828125</v>
+      </c>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="n">
+        <v>740328</v>
+      </c>
+      <c r="H301" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>13</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>3</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1036.300048828125</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1056.25</v>
+      </c>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="n">
+        <v>735814</v>
+      </c>
+      <c r="H302" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I302" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" t="n">
+        <v>14</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>3</v>
+      </c>
+      <c r="O302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1062.400024414062</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1042.099975585938</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1050.449951171875</v>
+      </c>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="n">
+        <v>561555</v>
+      </c>
+      <c r="H303" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I303" t="n">
+        <v>1</v>
+      </c>
+      <c r="J303" t="n">
+        <v>15</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>3</v>
+      </c>
+      <c r="O303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1068</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1084.849975585938</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1071.550048828125</v>
+      </c>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="n">
+        <v>456173</v>
+      </c>
+      <c r="H304" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I304" t="n">
+        <v>1</v>
+      </c>
+      <c r="J304" t="n">
+        <v>16</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>3</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1071</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1081.449951171875</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1054.650024414062</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1077.699951171875</v>
+      </c>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="n">
+        <v>313520</v>
+      </c>
+      <c r="H305" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I305" t="n">
+        <v>1</v>
+      </c>
+      <c r="J305" t="n">
+        <v>17</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>3</v>
+      </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R305"/>
+  <dimension ref="A1:R310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17275,7 +17275,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
-      <c r="R301" t="inlineStr"/>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -17327,7 +17329,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
-      <c r="R302" t="inlineStr"/>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -17379,7 +17383,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
-      <c r="R303" t="inlineStr"/>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -17431,7 +17437,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
-      <c r="R304" t="inlineStr"/>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -17483,7 +17491,269 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
-      <c r="R305" t="inlineStr"/>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1087.5</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1113</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1069</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1109.900024414062</v>
+      </c>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="n">
+        <v>528160</v>
+      </c>
+      <c r="H306" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I306" t="n">
+        <v>1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>20</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>4</v>
+      </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1114</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1118.949951171875</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1094.699951171875</v>
+      </c>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="n">
+        <v>556879</v>
+      </c>
+      <c r="H307" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I307" t="n">
+        <v>1</v>
+      </c>
+      <c r="J307" t="n">
+        <v>21</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>4</v>
+      </c>
+      <c r="O307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1097.550048828125</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1097.550048828125</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1066.050048828125</v>
+      </c>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="n">
+        <v>454950</v>
+      </c>
+      <c r="H308" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1</v>
+      </c>
+      <c r="J308" t="n">
+        <v>22</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>4</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1066.050048828125</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1097.449951171875</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1055.75</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1078.300048828125</v>
+      </c>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="n">
+        <v>383965</v>
+      </c>
+      <c r="H309" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>23</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>4</v>
+      </c>
+      <c r="O309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1083.800048828125</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1089.800048828125</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1058.25</v>
+      </c>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="n">
+        <v>409203</v>
+      </c>
+      <c r="H310" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1</v>
+      </c>
+      <c r="J310" t="n">
+        <v>24</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>4</v>
+      </c>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R310"/>
+  <dimension ref="A1:R314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17545,7 +17545,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
-      <c r="R306" t="inlineStr"/>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -17597,7 +17599,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
-      <c r="R307" t="inlineStr"/>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -17649,7 +17653,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
-      <c r="R308" t="inlineStr"/>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -17701,7 +17707,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
-      <c r="R309" t="inlineStr"/>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -17753,7 +17761,217 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
-      <c r="R310" t="inlineStr"/>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1045.099975585938</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1049.849975585938</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1005.200012207031</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1016.400024414062</v>
+      </c>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="n">
+        <v>714797</v>
+      </c>
+      <c r="H311" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I311" t="n">
+        <v>1</v>
+      </c>
+      <c r="J311" t="n">
+        <v>27</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>5</v>
+      </c>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1012.049987792969</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1045.900024414062</v>
+      </c>
+      <c r="D312" t="n">
+        <v>990</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1029.349975585938</v>
+      </c>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="n">
+        <v>658020</v>
+      </c>
+      <c r="H312" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I312" t="n">
+        <v>1</v>
+      </c>
+      <c r="J312" t="n">
+        <v>28</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>5</v>
+      </c>
+      <c r="O312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1024.050048828125</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1028.599975585938</v>
+      </c>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="n">
+        <v>488853</v>
+      </c>
+      <c r="H313" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I313" t="n">
+        <v>1</v>
+      </c>
+      <c r="J313" t="n">
+        <v>29</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" t="n">
+        <v>5</v>
+      </c>
+      <c r="O313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1048.199951171875</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1022.349975585938</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1034.650024414062</v>
+      </c>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="n">
+        <v>716712</v>
+      </c>
+      <c r="H314" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I314" t="n">
+        <v>1</v>
+      </c>
+      <c r="J314" t="n">
+        <v>31</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" t="n">
+        <v>5</v>
+      </c>
+      <c r="O314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R314" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R314"/>
+  <dimension ref="A1:R321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -17815,7 +17815,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
-      <c r="R311" t="inlineStr"/>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17867,7 +17869,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
-      <c r="R312" t="inlineStr"/>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17919,27 +17923,29 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
-      <c r="R313" t="inlineStr"/>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45688</v>
+        <v>45687</v>
       </c>
       <c r="B314" t="n">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="C314" t="n">
-        <v>1048.199951171875</v>
+        <v>1057.949951171875</v>
       </c>
       <c r="D314" t="n">
-        <v>1022.349975585938</v>
+        <v>1024</v>
       </c>
       <c r="E314" t="n">
-        <v>1034.650024414062</v>
+        <v>1027.800048828125</v>
       </c>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="n">
-        <v>716712</v>
+        <v>454007</v>
       </c>
       <c r="H314" t="n">
         <v>2025</v>
@@ -17948,7 +17954,7 @@
         <v>1</v>
       </c>
       <c r="J314" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K314" t="n">
         <v>0</v>
@@ -17972,6 +17978,372 @@
         <v>0</v>
       </c>
       <c r="R314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1048.199951171875</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1022.349975585938</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1034.650024414062</v>
+      </c>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="n">
+        <v>716712</v>
+      </c>
+      <c r="H315" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I315" t="n">
+        <v>1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>31</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="n">
+        <v>5</v>
+      </c>
+      <c r="O315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1093.949951171875</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1077.400024414062</v>
+      </c>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="n">
+        <v>1374020</v>
+      </c>
+      <c r="H316" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I316" t="n">
+        <v>2</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" t="n">
+        <v>5</v>
+      </c>
+      <c r="O316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1082.650024414062</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1049.050048828125</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1066.75</v>
+      </c>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="n">
+        <v>806142</v>
+      </c>
+      <c r="H317" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I317" t="n">
+        <v>2</v>
+      </c>
+      <c r="J317" t="n">
+        <v>3</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>6</v>
+      </c>
+      <c r="O317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1071.050048828125</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1088.949951171875</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1063.900024414062</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1068.199951171875</v>
+      </c>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="n">
+        <v>413465</v>
+      </c>
+      <c r="H318" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I318" t="n">
+        <v>2</v>
+      </c>
+      <c r="J318" t="n">
+        <v>4</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" t="n">
+        <v>6</v>
+      </c>
+      <c r="O318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B319" t="n">
+        <v>1063.150024414062</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1108</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1095.300048828125</v>
+      </c>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="n">
+        <v>642839</v>
+      </c>
+      <c r="H319" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I319" t="n">
+        <v>2</v>
+      </c>
+      <c r="J319" t="n">
+        <v>5</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" t="n">
+        <v>6</v>
+      </c>
+      <c r="O319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1094</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1077.449951171875</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1086.949951171875</v>
+      </c>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="n">
+        <v>322473</v>
+      </c>
+      <c r="H320" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I320" t="n">
+        <v>2</v>
+      </c>
+      <c r="J320" t="n">
+        <v>6</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>6</v>
+      </c>
+      <c r="O320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B321" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1089</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1062.050048828125</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1069.150024414062</v>
+      </c>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="n">
+        <v>334274</v>
+      </c>
+      <c r="H321" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I321" t="n">
+        <v>2</v>
+      </c>
+      <c r="J321" t="n">
+        <v>7</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N321" t="n">
+        <v>6</v>
+      </c>
+      <c r="O321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R321" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R321"/>
+  <dimension ref="A1:R326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17861,7 +17861,7 @@
         <v>5</v>
       </c>
       <c r="O312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P312" t="n">
         <v>0</v>
@@ -17977,7 +17977,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
-      <c r="R314" t="inlineStr"/>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -18083,7 +18085,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
-      <c r="R316" t="inlineStr"/>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -18135,7 +18139,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
-      <c r="R317" t="inlineStr"/>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -18187,7 +18193,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
-      <c r="R318" t="inlineStr"/>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -18239,7 +18247,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
-      <c r="R319" t="inlineStr"/>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -18291,7 +18301,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
-      <c r="R320" t="inlineStr"/>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -18343,7 +18355,269 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
-      <c r="R321" t="inlineStr"/>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1064.050048828125</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1064.449951171875</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1032.25</v>
+      </c>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="n">
+        <v>715144</v>
+      </c>
+      <c r="H322" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I322" t="n">
+        <v>2</v>
+      </c>
+      <c r="J322" t="n">
+        <v>10</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N322" t="n">
+        <v>7</v>
+      </c>
+      <c r="O322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B323" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1036.25</v>
+      </c>
+      <c r="D323" t="n">
+        <v>994.7999877929688</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1001.849975585938</v>
+      </c>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="n">
+        <v>606183</v>
+      </c>
+      <c r="H323" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I323" t="n">
+        <v>2</v>
+      </c>
+      <c r="J323" t="n">
+        <v>11</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>7</v>
+      </c>
+      <c r="O323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P323" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B324" t="n">
+        <v>1009.950012207031</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1012.900024414062</v>
+      </c>
+      <c r="D324" t="n">
+        <v>970.7999877929688</v>
+      </c>
+      <c r="E324" t="n">
+        <v>999.3499755859375</v>
+      </c>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="n">
+        <v>667476</v>
+      </c>
+      <c r="H324" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I324" t="n">
+        <v>2</v>
+      </c>
+      <c r="J324" t="n">
+        <v>12</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" t="n">
+        <v>7</v>
+      </c>
+      <c r="O324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B325" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1012.799987792969</v>
+      </c>
+      <c r="D325" t="n">
+        <v>980.5</v>
+      </c>
+      <c r="E325" t="n">
+        <v>983.1500244140625</v>
+      </c>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="n">
+        <v>471031</v>
+      </c>
+      <c r="H325" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I325" t="n">
+        <v>2</v>
+      </c>
+      <c r="J325" t="n">
+        <v>13</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>7</v>
+      </c>
+      <c r="O325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B326" t="n">
+        <v>983.1500244140625</v>
+      </c>
+      <c r="C326" t="n">
+        <v>991.8499755859375</v>
+      </c>
+      <c r="D326" t="n">
+        <v>950</v>
+      </c>
+      <c r="E326" t="n">
+        <v>953.8499755859375</v>
+      </c>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="n">
+        <v>497863</v>
+      </c>
+      <c r="H326" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I326" t="n">
+        <v>2</v>
+      </c>
+      <c r="J326" t="n">
+        <v>14</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" t="n">
+        <v>7</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R326"/>
+  <dimension ref="A1:R331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18239,7 +18239,7 @@
         <v>6</v>
       </c>
       <c r="O319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P319" t="n">
         <v>0</v>
@@ -18409,7 +18409,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
-      <c r="R322" t="inlineStr"/>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -18461,7 +18463,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
-      <c r="R323" t="inlineStr"/>
+      <c r="R323" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -18513,7 +18517,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
-      <c r="R324" t="inlineStr"/>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -18565,7 +18571,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
-      <c r="R325" t="inlineStr"/>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -18617,7 +18625,269 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
-      <c r="R326" t="inlineStr"/>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B327" t="n">
+        <v>952.9500122070312</v>
+      </c>
+      <c r="C327" t="n">
+        <v>970</v>
+      </c>
+      <c r="D327" t="n">
+        <v>931.0499877929688</v>
+      </c>
+      <c r="E327" t="n">
+        <v>965.0999755859375</v>
+      </c>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="n">
+        <v>523027</v>
+      </c>
+      <c r="H327" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I327" t="n">
+        <v>2</v>
+      </c>
+      <c r="J327" t="n">
+        <v>17</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>8</v>
+      </c>
+      <c r="O327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B328" t="n">
+        <v>965</v>
+      </c>
+      <c r="C328" t="n">
+        <v>971.5499877929688</v>
+      </c>
+      <c r="D328" t="n">
+        <v>940.1500244140625</v>
+      </c>
+      <c r="E328" t="n">
+        <v>947.9500122070312</v>
+      </c>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="n">
+        <v>512886</v>
+      </c>
+      <c r="H328" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I328" t="n">
+        <v>2</v>
+      </c>
+      <c r="J328" t="n">
+        <v>18</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>8</v>
+      </c>
+      <c r="O328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B329" t="n">
+        <v>948</v>
+      </c>
+      <c r="C329" t="n">
+        <v>976.0999755859375</v>
+      </c>
+      <c r="D329" t="n">
+        <v>941.7000122070312</v>
+      </c>
+      <c r="E329" t="n">
+        <v>970.9000244140625</v>
+      </c>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="n">
+        <v>672098</v>
+      </c>
+      <c r="H329" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I329" t="n">
+        <v>2</v>
+      </c>
+      <c r="J329" t="n">
+        <v>19</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>8</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B330" t="n">
+        <v>970</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1068.699951171875</v>
+      </c>
+      <c r="D330" t="n">
+        <v>970</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1045.599975585938</v>
+      </c>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="n">
+        <v>5830859</v>
+      </c>
+      <c r="H330" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I330" t="n">
+        <v>2</v>
+      </c>
+      <c r="J330" t="n">
+        <v>20</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>8</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B331" t="n">
+        <v>1038.849975585938</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1069</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1015.200012207031</v>
+      </c>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="n">
+        <v>1224286</v>
+      </c>
+      <c r="H331" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I331" t="n">
+        <v>2</v>
+      </c>
+      <c r="J331" t="n">
+        <v>21</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>8</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R331"/>
+  <dimension ref="A1:R340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6907,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R115" t="n">
         <v>0</v>
@@ -18679,7 +18679,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
-      <c r="R327" t="inlineStr"/>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -18731,7 +18733,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
-      <c r="R328" t="inlineStr"/>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -18783,7 +18787,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
-      <c r="R329" t="inlineStr"/>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -18835,7 +18841,9 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
-      <c r="R330" t="inlineStr"/>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -18887,7 +18895,477 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
-      <c r="R331" t="inlineStr"/>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1016.400024414062</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D332" t="n">
+        <v>986.8499755859375</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1007.200012207031</v>
+      </c>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="n">
+        <v>582960</v>
+      </c>
+      <c r="H332" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I332" t="n">
+        <v>2</v>
+      </c>
+      <c r="J332" t="n">
+        <v>24</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>9</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1011.200012207031</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1008.799987792969</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1046.449951171875</v>
+      </c>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="n">
+        <v>1820249</v>
+      </c>
+      <c r="H333" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I333" t="n">
+        <v>2</v>
+      </c>
+      <c r="J333" t="n">
+        <v>25</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" t="n">
+        <v>9</v>
+      </c>
+      <c r="O333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1043.800048828125</v>
+      </c>
+      <c r="D334" t="n">
+        <v>992.6500244140625</v>
+      </c>
+      <c r="E334" t="n">
+        <v>997.9500122070312</v>
+      </c>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="n">
+        <v>693373</v>
+      </c>
+      <c r="H334" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I334" t="n">
+        <v>2</v>
+      </c>
+      <c r="J334" t="n">
+        <v>27</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>9</v>
+      </c>
+      <c r="O334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B335" t="n">
+        <v>992.6500244140625</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1001.549987792969</v>
+      </c>
+      <c r="D335" t="n">
+        <v>972.7999877929688</v>
+      </c>
+      <c r="E335" t="n">
+        <v>979.1500244140625</v>
+      </c>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="n">
+        <v>783044</v>
+      </c>
+      <c r="H335" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I335" t="n">
+        <v>2</v>
+      </c>
+      <c r="J335" t="n">
+        <v>28</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>9</v>
+      </c>
+      <c r="O335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B336" t="n">
+        <v>983.0999755859375</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1000.849975585938</v>
+      </c>
+      <c r="D336" t="n">
+        <v>927</v>
+      </c>
+      <c r="E336" t="n">
+        <v>947.8499755859375</v>
+      </c>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="n">
+        <v>947097</v>
+      </c>
+      <c r="H336" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3</v>
+      </c>
+      <c r="J336" t="n">
+        <v>3</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>10</v>
+      </c>
+      <c r="O336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B337" t="n">
+        <v>943.0499877929688</v>
+      </c>
+      <c r="C337" t="n">
+        <v>974</v>
+      </c>
+      <c r="D337" t="n">
+        <v>931.2000122070312</v>
+      </c>
+      <c r="E337" t="n">
+        <v>966.5499877929688</v>
+      </c>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="n">
+        <v>672523</v>
+      </c>
+      <c r="H337" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I337" t="n">
+        <v>3</v>
+      </c>
+      <c r="J337" t="n">
+        <v>4</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>10</v>
+      </c>
+      <c r="O337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B338" t="n">
+        <v>970</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D338" t="n">
+        <v>956.6500244140625</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1001.200012207031</v>
+      </c>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="n">
+        <v>684723</v>
+      </c>
+      <c r="H338" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3</v>
+      </c>
+      <c r="J338" t="n">
+        <v>5</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>10</v>
+      </c>
+      <c r="O338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1031.099975585938</v>
+      </c>
+      <c r="D339" t="n">
+        <v>992.0499877929688</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1003.900024414062</v>
+      </c>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="n">
+        <v>599688</v>
+      </c>
+      <c r="H339" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I339" t="n">
+        <v>3</v>
+      </c>
+      <c r="J339" t="n">
+        <v>6</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N339" t="n">
+        <v>10</v>
+      </c>
+      <c r="O339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1001.400024414062</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1016.5</v>
+      </c>
+      <c r="D340" t="n">
+        <v>992</v>
+      </c>
+      <c r="E340" t="n">
+        <v>998.6500244140625</v>
+      </c>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="n">
+        <v>541696</v>
+      </c>
+      <c r="H340" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I340" t="n">
+        <v>3</v>
+      </c>
+      <c r="J340" t="n">
+        <v>7</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>10</v>
+      </c>
+      <c r="O340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R340" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R340"/>
+  <dimension ref="A1:R349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18949,7 +18949,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
-      <c r="R332" t="inlineStr"/>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -19001,7 +19003,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
-      <c r="R333" t="inlineStr"/>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -19053,7 +19057,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
-      <c r="R334" t="inlineStr"/>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -19105,7 +19111,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
-      <c r="R335" t="inlineStr"/>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -19149,7 +19157,7 @@
         <v>10</v>
       </c>
       <c r="O336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P336" t="n">
         <v>0</v>
@@ -19157,7 +19165,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
-      <c r="R336" t="inlineStr"/>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -19209,7 +19219,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
-      <c r="R337" t="inlineStr"/>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -19261,7 +19273,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
-      <c r="R338" t="inlineStr"/>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -19313,7 +19327,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
-      <c r="R339" t="inlineStr"/>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -19365,7 +19381,477 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
-      <c r="R340" t="inlineStr"/>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1000.150024414062</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D341" t="n">
+        <v>961.7000122070312</v>
+      </c>
+      <c r="E341" t="n">
+        <v>995.8499755859375</v>
+      </c>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="n">
+        <v>645677</v>
+      </c>
+      <c r="H341" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I341" t="n">
+        <v>3</v>
+      </c>
+      <c r="J341" t="n">
+        <v>10</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" t="n">
+        <v>11</v>
+      </c>
+      <c r="O341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B342" t="n">
+        <v>987.1500244140625</v>
+      </c>
+      <c r="C342" t="n">
+        <v>996</v>
+      </c>
+      <c r="D342" t="n">
+        <v>976.0499877929688</v>
+      </c>
+      <c r="E342" t="n">
+        <v>988.0499877929688</v>
+      </c>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="n">
+        <v>398623</v>
+      </c>
+      <c r="H342" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3</v>
+      </c>
+      <c r="J342" t="n">
+        <v>11</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" t="n">
+        <v>11</v>
+      </c>
+      <c r="O342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B343" t="n">
+        <v>988.0499877929688</v>
+      </c>
+      <c r="C343" t="n">
+        <v>997.1500244140625</v>
+      </c>
+      <c r="D343" t="n">
+        <v>973.0499877929688</v>
+      </c>
+      <c r="E343" t="n">
+        <v>977.5</v>
+      </c>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="n">
+        <v>335200</v>
+      </c>
+      <c r="H343" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I343" t="n">
+        <v>3</v>
+      </c>
+      <c r="J343" t="n">
+        <v>12</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N343" t="n">
+        <v>11</v>
+      </c>
+      <c r="O343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B344" t="n">
+        <v>977.5</v>
+      </c>
+      <c r="C344" t="n">
+        <v>990.4500122070312</v>
+      </c>
+      <c r="D344" t="n">
+        <v>957.5999755859375</v>
+      </c>
+      <c r="E344" t="n">
+        <v>961.5999755859375</v>
+      </c>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="n">
+        <v>412914</v>
+      </c>
+      <c r="H344" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I344" t="n">
+        <v>3</v>
+      </c>
+      <c r="J344" t="n">
+        <v>13</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N344" t="n">
+        <v>11</v>
+      </c>
+      <c r="O344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B345" t="n">
+        <v>969</v>
+      </c>
+      <c r="C345" t="n">
+        <v>979</v>
+      </c>
+      <c r="D345" t="n">
+        <v>961.0999755859375</v>
+      </c>
+      <c r="E345" t="n">
+        <v>970.5</v>
+      </c>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="n">
+        <v>400905</v>
+      </c>
+      <c r="H345" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I345" t="n">
+        <v>3</v>
+      </c>
+      <c r="J345" t="n">
+        <v>17</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N345" t="n">
+        <v>12</v>
+      </c>
+      <c r="O345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B346" t="n">
+        <v>980</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D346" t="n">
+        <v>973.5999755859375</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1006.150024414062</v>
+      </c>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="n">
+        <v>573765</v>
+      </c>
+      <c r="H346" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I346" t="n">
+        <v>3</v>
+      </c>
+      <c r="J346" t="n">
+        <v>18</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N346" t="n">
+        <v>12</v>
+      </c>
+      <c r="O346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1011.150024414062</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1067.849975585938</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1011.150024414062</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1060.699951171875</v>
+      </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="n">
+        <v>894288</v>
+      </c>
+      <c r="H347" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I347" t="n">
+        <v>3</v>
+      </c>
+      <c r="J347" t="n">
+        <v>19</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N347" t="n">
+        <v>12</v>
+      </c>
+      <c r="O347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B348" t="n">
+        <v>1068.900024414062</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1069</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1028.150024414062</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1038.300048828125</v>
+      </c>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="n">
+        <v>661303</v>
+      </c>
+      <c r="H348" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I348" t="n">
+        <v>3</v>
+      </c>
+      <c r="J348" t="n">
+        <v>20</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" t="n">
+        <v>12</v>
+      </c>
+      <c r="O348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B349" t="n">
+        <v>1040.5</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1076.099975585938</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1028</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1063.900024414062</v>
+      </c>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="n">
+        <v>1087398</v>
+      </c>
+      <c r="H349" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I349" t="n">
+        <v>3</v>
+      </c>
+      <c r="J349" t="n">
+        <v>21</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>12</v>
+      </c>
+      <c r="O349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R349" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R349"/>
+  <dimension ref="A1:R358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19435,7 +19435,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
-      <c r="R341" t="inlineStr"/>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -19487,7 +19489,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
-      <c r="R342" t="inlineStr"/>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -19539,7 +19543,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
-      <c r="R343" t="inlineStr"/>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -19591,7 +19597,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
-      <c r="R344" t="inlineStr"/>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -19643,7 +19651,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
-      <c r="R345" t="inlineStr"/>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -19695,7 +19705,9 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
-      <c r="R346" t="inlineStr"/>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -19747,7 +19759,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
-      <c r="R347" t="inlineStr"/>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -19799,7 +19813,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
-      <c r="R348" t="inlineStr"/>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -19851,7 +19867,477 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
-      <c r="R349" t="inlineStr"/>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B350" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1089.900024414062</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1069.75</v>
+      </c>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="n">
+        <v>725220</v>
+      </c>
+      <c r="H350" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I350" t="n">
+        <v>3</v>
+      </c>
+      <c r="J350" t="n">
+        <v>24</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>13</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1086.75</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1055.400024414062</v>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="n">
+        <v>631754</v>
+      </c>
+      <c r="H351" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I351" t="n">
+        <v>3</v>
+      </c>
+      <c r="J351" t="n">
+        <v>25</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>13</v>
+      </c>
+      <c r="O351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1062</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1109</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1039.900024414062</v>
+      </c>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="n">
+        <v>2771558</v>
+      </c>
+      <c r="H352" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I352" t="n">
+        <v>3</v>
+      </c>
+      <c r="J352" t="n">
+        <v>26</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N352" t="n">
+        <v>13</v>
+      </c>
+      <c r="O352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1039.800048828125</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1054.050048828125</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1019.5</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1023.349975585938</v>
+      </c>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="n">
+        <v>1083155</v>
+      </c>
+      <c r="H353" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I353" t="n">
+        <v>3</v>
+      </c>
+      <c r="J353" t="n">
+        <v>27</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N353" t="n">
+        <v>13</v>
+      </c>
+      <c r="O353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B354" t="n">
+        <v>1029.900024414062</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1047.900024414062</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1000.049987792969</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1003.299987792969</v>
+      </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="n">
+        <v>630905</v>
+      </c>
+      <c r="H354" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I354" t="n">
+        <v>3</v>
+      </c>
+      <c r="J354" t="n">
+        <v>28</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N354" t="n">
+        <v>13</v>
+      </c>
+      <c r="O354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1029.75</v>
+      </c>
+      <c r="D355" t="n">
+        <v>993.75</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1014.75</v>
+      </c>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="n">
+        <v>535316</v>
+      </c>
+      <c r="H355" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I355" t="n">
+        <v>4</v>
+      </c>
+      <c r="J355" t="n">
+        <v>1</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N355" t="n">
+        <v>14</v>
+      </c>
+      <c r="O355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1015.299987792969</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1033.300048828125</v>
+      </c>
+      <c r="D356" t="n">
+        <v>998.5499877929688</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1031.400024414062</v>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="n">
+        <v>443314</v>
+      </c>
+      <c r="H356" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I356" t="n">
+        <v>4</v>
+      </c>
+      <c r="J356" t="n">
+        <v>2</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N356" t="n">
+        <v>14</v>
+      </c>
+      <c r="O356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B357" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1031.900024414062</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="n">
+        <v>553857</v>
+      </c>
+      <c r="H357" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I357" t="n">
+        <v>4</v>
+      </c>
+      <c r="J357" t="n">
+        <v>3</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N357" t="n">
+        <v>14</v>
+      </c>
+      <c r="O357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D358" t="n">
+        <v>978.7000122070312</v>
+      </c>
+      <c r="E358" t="n">
+        <v>991.2999877929688</v>
+      </c>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="n">
+        <v>659594</v>
+      </c>
+      <c r="H358" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I358" t="n">
+        <v>4</v>
+      </c>
+      <c r="J358" t="n">
+        <v>4</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N358" t="n">
+        <v>14</v>
+      </c>
+      <c r="O358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R358" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R358"/>
+  <dimension ref="A1:R362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19921,7 +19921,9 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
-      <c r="R350" t="inlineStr"/>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -19973,7 +19975,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
-      <c r="R351" t="inlineStr"/>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -20017,7 +20021,7 @@
         <v>13</v>
       </c>
       <c r="O352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P352" t="n">
         <v>0</v>
@@ -20025,7 +20029,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
-      <c r="R352" t="inlineStr"/>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -20077,7 +20083,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
-      <c r="R353" t="inlineStr"/>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -20129,7 +20137,9 @@
       <c r="Q354" t="n">
         <v>0</v>
       </c>
-      <c r="R354" t="inlineStr"/>
+      <c r="R354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -20181,7 +20191,9 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
-      <c r="R355" t="inlineStr"/>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -20233,7 +20245,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
-      <c r="R356" t="inlineStr"/>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -20285,7 +20299,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
-      <c r="R357" t="inlineStr"/>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -20337,7 +20353,217 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
-      <c r="R358" t="inlineStr"/>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B359" t="n">
+        <v>832.2999877929688</v>
+      </c>
+      <c r="C359" t="n">
+        <v>964.4000244140625</v>
+      </c>
+      <c r="D359" t="n">
+        <v>832.2999877929688</v>
+      </c>
+      <c r="E359" t="n">
+        <v>954.7000122070312</v>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="n">
+        <v>909619</v>
+      </c>
+      <c r="H359" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I359" t="n">
+        <v>4</v>
+      </c>
+      <c r="J359" t="n">
+        <v>7</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N359" t="n">
+        <v>15</v>
+      </c>
+      <c r="O359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B360" t="n">
+        <v>997.6500244140625</v>
+      </c>
+      <c r="C360" t="n">
+        <v>997.6500244140625</v>
+      </c>
+      <c r="D360" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="E360" t="n">
+        <v>967.3499755859375</v>
+      </c>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="n">
+        <v>416987</v>
+      </c>
+      <c r="H360" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I360" t="n">
+        <v>4</v>
+      </c>
+      <c r="J360" t="n">
+        <v>8</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N360" t="n">
+        <v>15</v>
+      </c>
+      <c r="O360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B361" t="n">
+        <v>977.9000244140625</v>
+      </c>
+      <c r="C361" t="n">
+        <v>977.9000244140625</v>
+      </c>
+      <c r="D361" t="n">
+        <v>957</v>
+      </c>
+      <c r="E361" t="n">
+        <v>968.5499877929688</v>
+      </c>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="n">
+        <v>345174</v>
+      </c>
+      <c r="H361" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I361" t="n">
+        <v>4</v>
+      </c>
+      <c r="J361" t="n">
+        <v>9</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N361" t="n">
+        <v>15</v>
+      </c>
+      <c r="O361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B362" t="n">
+        <v>995.0499877929688</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D362" t="n">
+        <v>972.25</v>
+      </c>
+      <c r="E362" t="n">
+        <v>975.5499877929688</v>
+      </c>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="n">
+        <v>493924</v>
+      </c>
+      <c r="H362" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I362" t="n">
+        <v>4</v>
+      </c>
+      <c r="J362" t="n">
+        <v>11</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N362" t="n">
+        <v>15</v>
+      </c>
+      <c r="O362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R362" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R362"/>
+  <dimension ref="A1:R365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20407,7 +20407,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
-      <c r="R359" t="inlineStr"/>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -20459,7 +20461,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
-      <c r="R360" t="inlineStr"/>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -20511,7 +20515,9 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
-      <c r="R361" t="inlineStr"/>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -20563,7 +20569,165 @@
       <c r="Q362" t="n">
         <v>0</v>
       </c>
-      <c r="R362" t="inlineStr"/>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B363" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1007.900024414062</v>
+      </c>
+      <c r="D363" t="n">
+        <v>988</v>
+      </c>
+      <c r="E363" t="n">
+        <v>994.5999755859375</v>
+      </c>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="n">
+        <v>620242</v>
+      </c>
+      <c r="H363" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I363" t="n">
+        <v>4</v>
+      </c>
+      <c r="J363" t="n">
+        <v>15</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N363" t="n">
+        <v>16</v>
+      </c>
+      <c r="O363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P363" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B364" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1002.799987792969</v>
+      </c>
+      <c r="D364" t="n">
+        <v>992.5999755859375</v>
+      </c>
+      <c r="E364" t="n">
+        <v>995.7999877929688</v>
+      </c>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="n">
+        <v>429287</v>
+      </c>
+      <c r="H364" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I364" t="n">
+        <v>4</v>
+      </c>
+      <c r="J364" t="n">
+        <v>16</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N364" t="n">
+        <v>16</v>
+      </c>
+      <c r="O364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B365" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1033</v>
+      </c>
+      <c r="D365" t="n">
+        <v>994.0999755859375</v>
+      </c>
+      <c r="E365" t="n">
+        <v>1019.400024414062</v>
+      </c>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="n">
+        <v>884748</v>
+      </c>
+      <c r="H365" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I365" t="n">
+        <v>4</v>
+      </c>
+      <c r="J365" t="n">
+        <v>17</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N365" t="n">
+        <v>16</v>
+      </c>
+      <c r="O365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R365" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R365"/>
+  <dimension ref="A1:R374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="Q148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R148" t="n">
         <v>0</v>
@@ -20399,7 +20399,7 @@
         <v>15</v>
       </c>
       <c r="O359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P359" t="n">
         <v>0</v>
@@ -20623,7 +20623,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
-      <c r="R363" t="inlineStr"/>
+      <c r="R363" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -20675,7 +20677,9 @@
       <c r="Q364" t="n">
         <v>0</v>
       </c>
-      <c r="R364" t="inlineStr"/>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -20727,7 +20731,477 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
-      <c r="R365" t="inlineStr"/>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B366" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1038.800048828125</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1022.400024414062</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="n">
+        <v>374486</v>
+      </c>
+      <c r="H366" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I366" t="n">
+        <v>4</v>
+      </c>
+      <c r="J366" t="n">
+        <v>21</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N366" t="n">
+        <v>17</v>
+      </c>
+      <c r="O366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B367" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1041</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1015.900024414062</v>
+      </c>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="n">
+        <v>589729</v>
+      </c>
+      <c r="H367" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I367" t="n">
+        <v>4</v>
+      </c>
+      <c r="J367" t="n">
+        <v>22</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N367" t="n">
+        <v>17</v>
+      </c>
+      <c r="O367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1021.900024414062</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1028.699951171875</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1002.099975585938</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1009.900024414062</v>
+      </c>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="n">
+        <v>512948</v>
+      </c>
+      <c r="H368" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I368" t="n">
+        <v>4</v>
+      </c>
+      <c r="J368" t="n">
+        <v>23</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>17</v>
+      </c>
+      <c r="O368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B369" t="n">
+        <v>1009.900024414062</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1018.799987792969</v>
+      </c>
+      <c r="D369" t="n">
+        <v>998</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1000.099975585938</v>
+      </c>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="n">
+        <v>781951</v>
+      </c>
+      <c r="H369" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I369" t="n">
+        <v>4</v>
+      </c>
+      <c r="J369" t="n">
+        <v>24</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N369" t="n">
+        <v>17</v>
+      </c>
+      <c r="O369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B370" t="n">
+        <v>998</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D370" t="n">
+        <v>969.2000122070312</v>
+      </c>
+      <c r="E370" t="n">
+        <v>989.2000122070312</v>
+      </c>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="n">
+        <v>652240</v>
+      </c>
+      <c r="H370" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I370" t="n">
+        <v>4</v>
+      </c>
+      <c r="J370" t="n">
+        <v>25</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>17</v>
+      </c>
+      <c r="O370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B371" t="n">
+        <v>978</v>
+      </c>
+      <c r="C371" t="n">
+        <v>992.5</v>
+      </c>
+      <c r="D371" t="n">
+        <v>970.9000244140625</v>
+      </c>
+      <c r="E371" t="n">
+        <v>984.5</v>
+      </c>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="n">
+        <v>483425</v>
+      </c>
+      <c r="H371" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I371" t="n">
+        <v>4</v>
+      </c>
+      <c r="J371" t="n">
+        <v>28</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N371" t="n">
+        <v>18</v>
+      </c>
+      <c r="O371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B372" t="n">
+        <v>988.7999877929688</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1007.700012207031</v>
+      </c>
+      <c r="D372" t="n">
+        <v>986.0999755859375</v>
+      </c>
+      <c r="E372" t="n">
+        <v>989.5</v>
+      </c>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="n">
+        <v>357421</v>
+      </c>
+      <c r="H372" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I372" t="n">
+        <v>4</v>
+      </c>
+      <c r="J372" t="n">
+        <v>29</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N372" t="n">
+        <v>18</v>
+      </c>
+      <c r="O372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B373" t="n">
+        <v>989.5</v>
+      </c>
+      <c r="C373" t="n">
+        <v>991.7000122070312</v>
+      </c>
+      <c r="D373" t="n">
+        <v>967.7999877929688</v>
+      </c>
+      <c r="E373" t="n">
+        <v>971.9000244140625</v>
+      </c>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="n">
+        <v>503311</v>
+      </c>
+      <c r="H373" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I373" t="n">
+        <v>4</v>
+      </c>
+      <c r="J373" t="n">
+        <v>30</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N373" t="n">
+        <v>18</v>
+      </c>
+      <c r="O373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B374" t="n">
+        <v>970</v>
+      </c>
+      <c r="C374" t="n">
+        <v>982</v>
+      </c>
+      <c r="D374" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="E374" t="n">
+        <v>964.2999877929688</v>
+      </c>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" t="n">
+        <v>625844</v>
+      </c>
+      <c r="H374" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I374" t="n">
+        <v>5</v>
+      </c>
+      <c r="J374" t="n">
+        <v>2</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N374" t="n">
+        <v>18</v>
+      </c>
+      <c r="O374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R374" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ARE&M.NS.xlsx
+++ b/stock_historical_data/1d/ARE&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R374"/>
+  <dimension ref="A1:R384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20785,7 +20785,9 @@
       <c r="Q366" t="n">
         <v>0</v>
       </c>
-      <c r="R366" t="inlineStr"/>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -20829,7 +20831,7 @@
         <v>17</v>
       </c>
       <c r="O367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P367" t="n">
         <v>0</v>
@@ -20837,7 +20839,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
-      <c r="R367" t="inlineStr"/>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -20889,7 +20893,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
-      <c r="R368" t="inlineStr"/>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -20941,7 +20947,9 @@
       <c r="Q369" t="n">
         <v>0</v>
       </c>
-      <c r="R369" t="inlineStr"/>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -20993,7 +21001,9 @@
       <c r="Q370" t="n">
         <v>0</v>
       </c>
-      <c r="R370" t="inlineStr"/>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -21045,7 +21055,9 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
-      <c r="R371" t="inlineStr"/>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -21097,7 +21109,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
-      <c r="R372" t="inlineStr"/>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -21149,7 +21163,9 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
-      <c r="R373" t="inlineStr"/>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -21201,7 +21217,529 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
-      <c r="R374" t="inlineStr"/>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B375" t="n">
+        <v>974.0499877929688</v>
+      </c>
+      <c r="C375" t="n">
+        <v>980</v>
+      </c>
+      <c r="D375" t="n">
+        <v>966.9000244140625</v>
+      </c>
+      <c r="E375" t="n">
+        <v>973.5999755859375</v>
+      </c>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="n">
+        <v>422515</v>
+      </c>
+      <c r="H375" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I375" t="n">
+        <v>5</v>
+      </c>
+      <c r="J375" t="n">
+        <v>5</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N375" t="n">
+        <v>19</v>
+      </c>
+      <c r="O375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B376" t="n">
+        <v>973.5999755859375</v>
+      </c>
+      <c r="C376" t="n">
+        <v>985</v>
+      </c>
+      <c r="D376" t="n">
+        <v>908.9000244140625</v>
+      </c>
+      <c r="E376" t="n">
+        <v>945.9500122070312</v>
+      </c>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="n">
+        <v>578910</v>
+      </c>
+      <c r="H376" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I376" t="n">
+        <v>5</v>
+      </c>
+      <c r="J376" t="n">
+        <v>6</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N376" t="n">
+        <v>19</v>
+      </c>
+      <c r="O376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B377" t="n">
+        <v>923</v>
+      </c>
+      <c r="C377" t="n">
+        <v>948.5</v>
+      </c>
+      <c r="D377" t="n">
+        <v>921.1500244140625</v>
+      </c>
+      <c r="E377" t="n">
+        <v>942.4500122070312</v>
+      </c>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="n">
+        <v>457061</v>
+      </c>
+      <c r="H377" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I377" t="n">
+        <v>5</v>
+      </c>
+      <c r="J377" t="n">
+        <v>7</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0</v>
+      </c>
+      <c r="L377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N377" t="n">
+        <v>19</v>
+      </c>
+      <c r="O377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B378" t="n">
+        <v>944</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1004.5</v>
+      </c>
+      <c r="D378" t="n">
+        <v>944</v>
+      </c>
+      <c r="E378" t="n">
+        <v>963.2000122070312</v>
+      </c>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="n">
+        <v>2230553</v>
+      </c>
+      <c r="H378" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I378" t="n">
+        <v>5</v>
+      </c>
+      <c r="J378" t="n">
+        <v>8</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N378" t="n">
+        <v>19</v>
+      </c>
+      <c r="O378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P378" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B379" t="n">
+        <v>940</v>
+      </c>
+      <c r="C379" t="n">
+        <v>957.7000122070312</v>
+      </c>
+      <c r="D379" t="n">
+        <v>933.6500244140625</v>
+      </c>
+      <c r="E379" t="n">
+        <v>953.7999877929688</v>
+      </c>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="n">
+        <v>646531</v>
+      </c>
+      <c r="H379" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I379" t="n">
+        <v>5</v>
+      </c>
+      <c r="J379" t="n">
+        <v>9</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N379" t="n">
+        <v>19</v>
+      </c>
+      <c r="O379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B380" t="n">
+        <v>984.9500122070312</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D380" t="n">
+        <v>981</v>
+      </c>
+      <c r="E380" t="n">
+        <v>999.1500244140625</v>
+      </c>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="n">
+        <v>673608</v>
+      </c>
+      <c r="H380" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I380" t="n">
+        <v>5</v>
+      </c>
+      <c r="J380" t="n">
+        <v>12</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N380" t="n">
+        <v>20</v>
+      </c>
+      <c r="O380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B381" t="n">
+        <v>999.25</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1019.599975585938</v>
+      </c>
+      <c r="D381" t="n">
+        <v>990.4000244140625</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1013.849975585938</v>
+      </c>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="n">
+        <v>677931</v>
+      </c>
+      <c r="H381" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I381" t="n">
+        <v>5</v>
+      </c>
+      <c r="J381" t="n">
+        <v>13</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N381" t="n">
+        <v>20</v>
+      </c>
+      <c r="O381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B382" t="n">
+        <v>1013.849975585938</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E382" t="n">
+        <v>1012.25</v>
+      </c>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="n">
+        <v>570116</v>
+      </c>
+      <c r="H382" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I382" t="n">
+        <v>5</v>
+      </c>
+      <c r="J382" t="n">
+        <v>14</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N382" t="n">
+        <v>20</v>
+      </c>
+      <c r="O382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B383" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1035.900024414062</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1008.25</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1019.049987792969</v>
+      </c>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="n">
+        <v>398163</v>
+      </c>
+      <c r="H383" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I383" t="n">
+        <v>5</v>
+      </c>
+      <c r="J383" t="n">
+        <v>15</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N383" t="n">
+        <v>20</v>
+      </c>
+      <c r="O383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1055.800048828125</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1019.049987792969</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1035.75</v>
+      </c>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="n">
+        <v>981499</v>
+      </c>
+      <c r="H384" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I384" t="n">
+        <v>5</v>
+      </c>
+      <c r="J384" t="n">
+        <v>16</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N384" t="n">
+        <v>20</v>
+      </c>
+      <c r="O384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
